--- a/InvoiceTemplate.xlsx
+++ b/InvoiceTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amulligan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amulligan\Desktop\CCS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,7 +95,7 @@
     <t>01/01/2015 00:00:00 - 01/02/2015 23:59:59</t>
   </si>
   <si>
-    <t>Some WhereA</t>
+    <t>Some Where</t>
   </si>
 </sst>
 </file>
@@ -947,7 +947,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
